--- a/100. LoginSystem Document/310. Table Specification.xlsx
+++ b/100. LoginSystem Document/310. Table Specification.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA2F3B7-9F5D-46F4-A93D-BD9075066E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC64D514-8440-4A4E-A9DF-46F7348782FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17712" windowHeight="10416" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23220" yWindow="0" windowWidth="15180" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tUser" sheetId="23" r:id="rId1"/>
     <sheet name="tLoginPass" sheetId="25" r:id="rId2"/>
+    <sheet name="tUserActivity" sheetId="27" r:id="rId3"/>
+    <sheet name="tUserRole" sheetId="28" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +174,117 @@
   </si>
   <si>
     <t>tUser(user_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의미</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Len</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Uni/Dup</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>활동ID</t>
+  </si>
+  <si>
+    <t>user_act_id</t>
+  </si>
+  <si>
+    <t>uniqueidentifier</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>각각의 사용자 활동을 고유하게 식별</t>
+  </si>
+  <si>
+    <t>로그인ID</t>
+  </si>
+  <si>
+    <t>login_id</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>로그인 ID</t>
+  </si>
+  <si>
+    <t>활동유형</t>
+  </si>
+  <si>
+    <t>user_act_type</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>'login', 'logout', 'signup'</t>
+  </si>
+  <si>
+    <t>사용자의 활동 유형</t>
+  </si>
+  <si>
+    <t>역할ID</t>
+  </si>
+  <si>
+    <t>사용자에게 부여된 역할을 식별하는 ID</t>
+  </si>
+  <si>
+    <t>역할유형</t>
+  </si>
+  <si>
+    <t>user_role_type</t>
+  </si>
+  <si>
+    <t>'admin', 'user'</t>
+  </si>
+  <si>
+    <t>사용자에게 부여된 역할 유형</t>
+  </si>
+  <si>
+    <t>tUserActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_role_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK(user_role_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 활동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 역할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tUserRole</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,27 +642,27 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="7.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.3984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -557,7 +670,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -583,7 +696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -606,7 +719,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -620,7 +733,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -634,7 +747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -648,7 +761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -675,27 +788,27 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="7.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.3984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -703,7 +816,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -729,7 +842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -752,7 +865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -772,7 +885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -792,7 +905,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -809,7 +922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -823,7 +936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -834,6 +947,328 @@
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35045CB5-2183-42E0-B5EF-12AFE7242698}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="7.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DC78F6-E841-4FBB-8826-9459490E75AC}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="7.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -845,21 +1280,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100DDC4E7FC0E8329408241B0E5A76FDD02" ma:contentTypeVersion="7" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="8034b123e0d202350197c15ccf411ace">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a52b97a9-27a8-422f-a73a-2e259fb293eb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="72fd0255b873f244214f8e67430f5367" ns3:_="">
     <xsd:import namespace="a52b97a9-27a8-422f-a73a-2e259fb293eb"/>
@@ -1023,10 +1443,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E4547EE-8FB3-4CC2-A598-EF7E15760679}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B4CD515-B7DF-4D77-8CB1-63F0A7F291D8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a52b97a9-27a8-422f-a73a-2e259fb293eb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1048,19 +1493,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B4CD515-B7DF-4D77-8CB1-63F0A7F291D8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E4547EE-8FB3-4CC2-A598-EF7E15760679}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a52b97a9-27a8-422f-a73a-2e259fb293eb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>